--- a/JBM Enterprises/public/assets/samplefiles/Tent Repo List - Jan 23 (1).xlsx
+++ b/JBM Enterprises/public/assets/samplefiles/Tent Repo List - Jan 23 (1).xlsx
@@ -137,7 +137,7 @@
     <t>JCB BACKHOE LOADER</t>
   </si>
   <si>
-    <t>MH-10-DQ-2431</t>
+    <t>MH-10-DQ-5469</t>
   </si>
   <si>
     <t>RAJ3DXSSK02944139</t>
@@ -12604,8 +12604,8 @@
   </sheetPr>
   <dimension ref="A1:Q735"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43" defaultRowHeight="15.75" customHeight="1"/>
